--- a/COURSE-2-Introduction-to-Spreadsheets-and-Models/Notes & Slides/C2 Excel Files/Module-1-Examples.xlsx
+++ b/COURSE-2-Introduction-to-Spreadsheets-and-Models/Notes & Slides/C2 Excel Files/Module-1-Examples.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Don\Google Drive\Personal\Personal from Dropbox Innovation\Presentations\Spreadsheets and Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keenechung/Documents/GitHub/finance-and-quantitative-modeling/COURSE-2-Introduction-to-Spreadsheets-and-Models/Notes &amp; Slides/C2 Excel Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6D662A-02C3-2848-88F8-716445649D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="4640" yWindow="2480" windowWidth="27280" windowHeight="18220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="San Francisco Job " sheetId="7" r:id="rId1"/>
@@ -19,10 +20,21 @@
     <sheet name="Innovative Speakers 4" sheetId="12" r:id="rId5"/>
     <sheet name="Cashflow forecast" sheetId="13" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -412,7 +424,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -807,7 +819,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -859,12 +871,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1167,22 +1178,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -1220,7 +1231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1273,12 +1284,12 @@
         <v>4062.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1342,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +1383,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1424,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1454,7 +1465,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1495,7 +1506,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1536,7 +1547,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1589,7 +1600,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1653,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1651,16 +1662,16 @@
         <v>-2337.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
     </row>
   </sheetData>
@@ -1670,32 +1681,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
@@ -1712,7 +1725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1732,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1752,7 +1765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7">
         <f>B5*B6</f>
         <v>210</v>
@@ -1774,7 +1787,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1789,16 +1802,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>45</v>
       </c>
@@ -1815,7 +1834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>42370</v>
       </c>
@@ -1832,7 +1851,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>A3+7</f>
         <v>42377</v>
@@ -1850,7 +1869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>A4+7</f>
         <v>42384</v>
@@ -1868,7 +1887,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>A5+7</f>
         <v>42391</v>
@@ -1886,7 +1905,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>A6+7</f>
         <v>42398</v>
@@ -1904,7 +1923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f t="shared" ref="A8:A15" si="0">A7+7</f>
         <v>42405</v>
@@ -1922,7 +1941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>42412</v>
@@ -1940,7 +1959,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>42419</v>
@@ -1958,7 +1977,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>42426</v>
@@ -1976,7 +1995,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>A11+7</f>
         <v>42433</v>
@@ -1994,7 +2013,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>A12+7</f>
         <v>42440</v>
@@ -2012,7 +2031,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <f>A13+7</f>
         <v>42447</v>
@@ -2030,7 +2049,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>42454</v>
@@ -2048,14 +2067,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>50</v>
       </c>
@@ -2067,7 +2086,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -2075,7 +2094,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2088,7 +2107,7 @@
         <v>1.6923076923076923</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2101,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2114,7 +2133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2133,36 +2152,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="D3" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2173,10 +2197,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
@@ -2193,7 +2217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2213,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2238,7 +2262,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -2263,7 +2287,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2283,7 +2307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11">
         <f>B7*B10</f>
         <v>210</v>
@@ -2305,10 +2329,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2318,13 +2342,13 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="11"/>
     </row>
   </sheetData>
@@ -2333,19 +2357,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12:R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
@@ -2354,7 +2382,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2363,13 +2391,13 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -2385,7 +2413,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2401,7 +2429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2413,13 +2441,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>57</v>
       </c>
@@ -2430,7 +2458,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>66</v>
       </c>
@@ -2441,13 +2469,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
@@ -2461,7 +2489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2478,7 +2506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -2498,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -2519,7 +2547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2540,7 +2568,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -2561,19 +2589,19 @@
         <v>10125</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2585,20 +2613,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>69</v>
       </c>
@@ -2617,7 +2645,7 @@
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2636,8 +2664,8 @@
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:15" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>70</v>
       </c>
@@ -2645,7 +2673,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21">
@@ -2697,11 +2725,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <f>MIN(C22:N22)</f>
         <v>-270.36</v>
       </c>
@@ -2717,11 +2745,11 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <f>(O31-O66)/O31</f>
         <v>0.15610774992797466</v>
       </c>
@@ -2738,11 +2766,11 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <f>N67</f>
         <v>2870.7599999999993</v>
       </c>
@@ -2759,7 +2787,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
@@ -2775,7 +2803,7 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="22"/>
       <c r="C10" s="21"/>
@@ -2791,11 +2819,11 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="51">
         <v>0.1</v>
       </c>
       <c r="C11" s="21"/>
@@ -2811,11 +2839,11 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="52">
         <v>0.2</v>
       </c>
       <c r="C12" s="21"/>
@@ -2831,11 +2859,11 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+    <row r="13" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="53">
         <v>89</v>
       </c>
       <c r="C13" s="21"/>
@@ -2851,63 +2879,63 @@
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="55">
         <v>200</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="53">
         <f>$B$14</f>
         <v>200</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="53">
         <f t="shared" ref="D14:J14" si="1">$B$14</f>
         <v>200</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="53">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="53">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="53">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="53">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="53">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="53">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="53">
         <f>$B$14*2</f>
         <v>400</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="53">
         <f t="shared" ref="L14:N14" si="2">$B$14*2</f>
         <v>400</v>
       </c>
-      <c r="M14" s="54">
+      <c r="M14" s="53">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14" s="53">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -2922,7 +2950,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>78</v>
       </c>
@@ -2965,7 +2993,7 @@
       </c>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>79</v>
       </c>
@@ -3007,7 +3035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>80</v>
       </c>
@@ -3062,7 +3090,7 @@
       </c>
       <c r="O18" s="27"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>81</v>
       </c>
@@ -3109,120 +3137,120 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="32">
         <v>50</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="32">
         <f>B67</f>
         <v>50</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="32">
         <f t="shared" ref="D21:N21" si="4">C67</f>
         <v>-126.20000000000005</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="32">
         <f t="shared" si="4"/>
         <v>-270.36</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="32">
         <f t="shared" si="4"/>
         <v>-190.24000000000012</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="32">
         <f t="shared" si="4"/>
         <v>39.400000000000091</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="32">
         <f t="shared" si="4"/>
         <v>418.56000000000017</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="32">
         <f t="shared" si="4"/>
         <v>722.96000000000026</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="32">
         <f t="shared" si="4"/>
         <v>1251.6400000000003</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="32">
         <f t="shared" si="4"/>
         <v>1705.5600000000004</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="32">
         <f t="shared" si="4"/>
         <v>1660.44</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="32">
         <f t="shared" si="4"/>
         <v>1764.8400000000001</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="32">
         <f t="shared" si="4"/>
         <v>2168.2799999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="32">
         <f t="shared" ref="B22:N22" si="5">B67</f>
         <v>50</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="32">
         <f t="shared" si="5"/>
         <v>-126.20000000000005</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="32">
         <f t="shared" si="5"/>
         <v>-270.36</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="32">
         <f t="shared" si="5"/>
         <v>-190.24000000000012</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="32">
         <f t="shared" si="5"/>
         <v>39.400000000000091</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="32">
         <f t="shared" si="5"/>
         <v>418.56000000000017</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="32">
         <f t="shared" si="5"/>
         <v>722.96000000000026</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="32">
         <f t="shared" si="5"/>
         <v>1251.6400000000003</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="32">
         <f t="shared" si="5"/>
         <v>1705.5600000000004</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="32">
         <f t="shared" si="5"/>
         <v>1660.44</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="32">
         <f t="shared" si="5"/>
         <v>1764.8400000000001</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="32">
         <f t="shared" si="5"/>
         <v>2168.2799999999997</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="32">
         <f t="shared" si="5"/>
         <v>2870.7599999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
@@ -3238,7 +3266,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>86</v>
       </c>
@@ -3257,56 +3285,56 @@
       <c r="N24" s="34"/>
       <c r="O24" s="35"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32">
         <f t="shared" ref="C25:N25" si="6">C18*$B$13</f>
         <v>1068</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="32">
         <f t="shared" si="6"/>
         <v>961.19999999999993</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="32">
         <f t="shared" si="6"/>
         <v>1281.5999999999999</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="32">
         <f t="shared" si="6"/>
         <v>1495.2</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="32">
         <f t="shared" si="6"/>
         <v>1708.8</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="32">
         <f t="shared" si="6"/>
         <v>1602</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="32">
         <f t="shared" si="6"/>
         <v>1922.3999999999999</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="32">
         <f t="shared" si="6"/>
         <v>1815.6</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="32">
         <f t="shared" si="6"/>
         <v>1388.3999999999999</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="32">
         <f t="shared" si="6"/>
         <v>1602</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="32">
         <f t="shared" si="6"/>
         <v>2029.2</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="32">
         <f t="shared" si="6"/>
         <v>2456.3999999999996</v>
       </c>
@@ -3315,56 +3343,56 @@
         <v>19330.800000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32">
         <f>C25*B11</f>
         <v>106.80000000000001</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="32">
         <f t="shared" ref="D26:N26" si="7">D25*$F$5</f>
         <v>0</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L26" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M26" s="36">
+      <c r="M26" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3373,211 +3401,211 @@
         <v>106.80000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
       <c r="O27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
       <c r="O28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
       <c r="O29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
       <c r="O30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
+    <row r="31" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39">
         <f t="shared" ref="C31:N31" si="9">SUM(C25,C27:C30,(C26*-1))</f>
         <v>961.2</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="39">
         <f t="shared" si="9"/>
         <v>961.19999999999993</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="39">
         <f t="shared" si="9"/>
         <v>1281.5999999999999</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <f t="shared" si="9"/>
         <v>1495.2</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="39">
         <f t="shared" si="9"/>
         <v>1708.8</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="39">
         <f t="shared" si="9"/>
         <v>1602</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="39">
         <f t="shared" si="9"/>
         <v>1922.3999999999999</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="39">
         <f t="shared" si="9"/>
         <v>1815.6</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="39">
         <f t="shared" si="9"/>
         <v>1388.3999999999999</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="39">
         <f t="shared" si="9"/>
         <v>1602</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="39">
         <f t="shared" si="9"/>
         <v>2029.2</v>
       </c>
-      <c r="N31" s="40">
+      <c r="N31" s="39">
         <f t="shared" si="9"/>
         <v>2456.3999999999996</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="40">
         <f>SUM(O25:O30)</f>
         <v>19437.600000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="41">
         <f t="shared" ref="B32:N32" si="10">(B21+B31)</f>
         <v>50</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="41">
         <f t="shared" si="10"/>
         <v>1011.2</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="41">
         <f t="shared" si="10"/>
         <v>834.99999999999989</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <f t="shared" si="10"/>
         <v>1011.2399999999999</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="41">
         <f t="shared" si="10"/>
         <v>1304.96</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="41">
         <f t="shared" si="10"/>
         <v>1748.2</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="41">
         <f t="shared" si="10"/>
         <v>2020.5600000000002</v>
       </c>
-      <c r="I32" s="42">
+      <c r="I32" s="41">
         <f t="shared" si="10"/>
         <v>2645.36</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="41">
         <f t="shared" si="10"/>
         <v>3067.2400000000002</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="41">
         <f t="shared" si="10"/>
         <v>3093.96</v>
       </c>
-      <c r="L32" s="42">
+      <c r="L32" s="41">
         <f t="shared" si="10"/>
         <v>3262.44</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="41">
         <f t="shared" si="10"/>
         <v>3794.04</v>
       </c>
-      <c r="N32" s="42">
+      <c r="N32" s="41">
         <f t="shared" si="10"/>
         <v>4624.6799999999994</v>
       </c>
-      <c r="O32" s="43"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="42"/>
+    </row>
+    <row r="33" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -3594,7 +3622,7 @@
       <c r="N33" s="30"/>
       <c r="O33" s="30"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
         <v>95</v>
       </c>
@@ -3613,1583 +3641,1583 @@
       <c r="N34" s="34"/>
       <c r="O34" s="35"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32">
         <f t="shared" ref="C35:N35" si="11">C14</f>
         <v>200</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="32">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="32">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="32">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="32">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="32">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="32">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="32">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="32">
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="32">
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35" s="32">
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="32">
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="O35" s="37">
+      <c r="O35" s="36">
         <f t="shared" ref="O35:O66" si="12">SUM(C35:N35)</f>
         <v>3200</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="36">
-        <v>1</v>
-      </c>
-      <c r="F36" s="36">
-        <v>1</v>
-      </c>
-      <c r="G36" s="36">
-        <v>1</v>
-      </c>
-      <c r="H36" s="36">
-        <v>1</v>
-      </c>
-      <c r="I36" s="36">
-        <v>1</v>
-      </c>
-      <c r="J36" s="36">
-        <v>1</v>
-      </c>
-      <c r="K36" s="36">
-        <v>1</v>
-      </c>
-      <c r="L36" s="36">
-        <v>1</v>
-      </c>
-      <c r="M36" s="36">
-        <v>1</v>
-      </c>
-      <c r="N36" s="36">
-        <v>1</v>
-      </c>
-      <c r="O36" s="37">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32">
+        <v>1</v>
+      </c>
+      <c r="D36" s="32">
+        <v>1</v>
+      </c>
+      <c r="E36" s="32">
+        <v>1</v>
+      </c>
+      <c r="F36" s="32">
+        <v>1</v>
+      </c>
+      <c r="G36" s="32">
+        <v>1</v>
+      </c>
+      <c r="H36" s="32">
+        <v>1</v>
+      </c>
+      <c r="I36" s="32">
+        <v>1</v>
+      </c>
+      <c r="J36" s="32">
+        <v>1</v>
+      </c>
+      <c r="K36" s="32">
+        <v>1</v>
+      </c>
+      <c r="L36" s="32">
+        <v>1</v>
+      </c>
+      <c r="M36" s="32">
+        <v>1</v>
+      </c>
+      <c r="N36" s="32">
+        <v>1</v>
+      </c>
+      <c r="O36" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32">
         <v>600</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="32">
         <v>600</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="32">
         <v>600</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="32">
         <v>600</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="32">
         <v>600</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="32">
         <v>600</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="32">
         <v>600</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="32">
         <v>600</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="32">
         <v>600</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="32">
         <v>600</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="32">
         <v>600</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="32">
         <v>600</v>
       </c>
-      <c r="O37" s="37">
+      <c r="O37" s="36">
         <f t="shared" si="12"/>
         <v>7200</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36">
-        <v>1</v>
-      </c>
-      <c r="D38" s="36">
-        <v>1</v>
-      </c>
-      <c r="E38" s="36">
-        <v>1</v>
-      </c>
-      <c r="F38" s="36">
-        <v>1</v>
-      </c>
-      <c r="G38" s="36">
-        <v>1</v>
-      </c>
-      <c r="H38" s="36">
-        <v>1</v>
-      </c>
-      <c r="I38" s="36">
-        <v>1</v>
-      </c>
-      <c r="J38" s="36">
-        <v>1</v>
-      </c>
-      <c r="K38" s="36">
-        <v>1</v>
-      </c>
-      <c r="L38" s="36">
-        <v>1</v>
-      </c>
-      <c r="M38" s="36">
-        <v>1</v>
-      </c>
-      <c r="N38" s="36">
-        <v>1</v>
-      </c>
-      <c r="O38" s="37">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32">
+        <v>1</v>
+      </c>
+      <c r="D38" s="32">
+        <v>1</v>
+      </c>
+      <c r="E38" s="32">
+        <v>1</v>
+      </c>
+      <c r="F38" s="32">
+        <v>1</v>
+      </c>
+      <c r="G38" s="32">
+        <v>1</v>
+      </c>
+      <c r="H38" s="32">
+        <v>1</v>
+      </c>
+      <c r="I38" s="32">
+        <v>1</v>
+      </c>
+      <c r="J38" s="32">
+        <v>1</v>
+      </c>
+      <c r="K38" s="32">
+        <v>1</v>
+      </c>
+      <c r="L38" s="32">
+        <v>1</v>
+      </c>
+      <c r="M38" s="32">
+        <v>1</v>
+      </c>
+      <c r="N38" s="32">
+        <v>1</v>
+      </c>
+      <c r="O38" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36">
-        <v>1</v>
-      </c>
-      <c r="D39" s="36">
-        <v>1</v>
-      </c>
-      <c r="E39" s="36">
-        <v>1</v>
-      </c>
-      <c r="F39" s="36">
-        <v>1</v>
-      </c>
-      <c r="G39" s="36">
-        <v>1</v>
-      </c>
-      <c r="H39" s="36">
-        <v>1</v>
-      </c>
-      <c r="I39" s="36">
-        <v>1</v>
-      </c>
-      <c r="J39" s="36">
-        <v>1</v>
-      </c>
-      <c r="K39" s="36">
-        <v>1</v>
-      </c>
-      <c r="L39" s="36">
-        <v>1</v>
-      </c>
-      <c r="M39" s="36">
-        <v>1</v>
-      </c>
-      <c r="N39" s="36">
-        <v>1</v>
-      </c>
-      <c r="O39" s="37">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32">
+        <v>1</v>
+      </c>
+      <c r="D39" s="32">
+        <v>1</v>
+      </c>
+      <c r="E39" s="32">
+        <v>1</v>
+      </c>
+      <c r="F39" s="32">
+        <v>1</v>
+      </c>
+      <c r="G39" s="32">
+        <v>1</v>
+      </c>
+      <c r="H39" s="32">
+        <v>1</v>
+      </c>
+      <c r="I39" s="32">
+        <v>1</v>
+      </c>
+      <c r="J39" s="32">
+        <v>1</v>
+      </c>
+      <c r="K39" s="32">
+        <v>1</v>
+      </c>
+      <c r="L39" s="32">
+        <v>1</v>
+      </c>
+      <c r="M39" s="32">
+        <v>1</v>
+      </c>
+      <c r="N39" s="32">
+        <v>1</v>
+      </c>
+      <c r="O39" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36">
-        <v>1</v>
-      </c>
-      <c r="D40" s="36">
-        <v>1</v>
-      </c>
-      <c r="E40" s="36">
-        <v>1</v>
-      </c>
-      <c r="F40" s="36">
-        <v>1</v>
-      </c>
-      <c r="G40" s="36">
-        <v>1</v>
-      </c>
-      <c r="H40" s="36">
-        <v>1</v>
-      </c>
-      <c r="I40" s="36">
-        <v>1</v>
-      </c>
-      <c r="J40" s="36">
-        <v>1</v>
-      </c>
-      <c r="K40" s="36">
-        <v>1</v>
-      </c>
-      <c r="L40" s="36">
-        <v>1</v>
-      </c>
-      <c r="M40" s="36">
-        <v>1</v>
-      </c>
-      <c r="N40" s="36">
-        <v>1</v>
-      </c>
-      <c r="O40" s="37">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32">
+        <v>1</v>
+      </c>
+      <c r="D40" s="32">
+        <v>1</v>
+      </c>
+      <c r="E40" s="32">
+        <v>1</v>
+      </c>
+      <c r="F40" s="32">
+        <v>1</v>
+      </c>
+      <c r="G40" s="32">
+        <v>1</v>
+      </c>
+      <c r="H40" s="32">
+        <v>1</v>
+      </c>
+      <c r="I40" s="32">
+        <v>1</v>
+      </c>
+      <c r="J40" s="32">
+        <v>1</v>
+      </c>
+      <c r="K40" s="32">
+        <v>1</v>
+      </c>
+      <c r="L40" s="32">
+        <v>1</v>
+      </c>
+      <c r="M40" s="32">
+        <v>1</v>
+      </c>
+      <c r="N40" s="32">
+        <v>1</v>
+      </c>
+      <c r="O40" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32">
         <f>C25*0.3</f>
         <v>320.39999999999998</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="32">
         <f t="shared" ref="D41:N41" si="13">D25*0.3</f>
         <v>288.35999999999996</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="32">
         <f t="shared" si="13"/>
         <v>384.47999999999996</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="32">
         <f t="shared" si="13"/>
         <v>448.56</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="32">
         <f t="shared" si="13"/>
         <v>512.64</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41" s="32">
         <f t="shared" si="13"/>
         <v>480.59999999999997</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="32">
         <f t="shared" si="13"/>
         <v>576.71999999999991</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41" s="32">
         <f t="shared" si="13"/>
         <v>544.67999999999995</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="32">
         <f t="shared" si="13"/>
         <v>416.51999999999992</v>
       </c>
-      <c r="L41" s="36">
+      <c r="L41" s="32">
         <f t="shared" si="13"/>
         <v>480.59999999999997</v>
       </c>
-      <c r="M41" s="36">
+      <c r="M41" s="32">
         <f t="shared" si="13"/>
         <v>608.76</v>
       </c>
-      <c r="N41" s="36">
+      <c r="N41" s="32">
         <f t="shared" si="13"/>
         <v>736.91999999999985</v>
       </c>
-      <c r="O41" s="37">
+      <c r="O41" s="36">
         <f t="shared" si="12"/>
         <v>5799.24</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36">
-        <v>1</v>
-      </c>
-      <c r="D42" s="36">
-        <v>1</v>
-      </c>
-      <c r="E42" s="36">
-        <v>1</v>
-      </c>
-      <c r="F42" s="36">
-        <v>1</v>
-      </c>
-      <c r="G42" s="36">
-        <v>1</v>
-      </c>
-      <c r="H42" s="36">
-        <v>1</v>
-      </c>
-      <c r="I42" s="36">
-        <v>1</v>
-      </c>
-      <c r="J42" s="36">
-        <v>1</v>
-      </c>
-      <c r="K42" s="36">
-        <v>1</v>
-      </c>
-      <c r="L42" s="36">
-        <v>1</v>
-      </c>
-      <c r="M42" s="36">
-        <v>1</v>
-      </c>
-      <c r="N42" s="36">
-        <v>1</v>
-      </c>
-      <c r="O42" s="37">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32">
+        <v>1</v>
+      </c>
+      <c r="D42" s="32">
+        <v>1</v>
+      </c>
+      <c r="E42" s="32">
+        <v>1</v>
+      </c>
+      <c r="F42" s="32">
+        <v>1</v>
+      </c>
+      <c r="G42" s="32">
+        <v>1</v>
+      </c>
+      <c r="H42" s="32">
+        <v>1</v>
+      </c>
+      <c r="I42" s="32">
+        <v>1</v>
+      </c>
+      <c r="J42" s="32">
+        <v>1</v>
+      </c>
+      <c r="K42" s="32">
+        <v>1</v>
+      </c>
+      <c r="L42" s="32">
+        <v>1</v>
+      </c>
+      <c r="M42" s="32">
+        <v>1</v>
+      </c>
+      <c r="N42" s="32">
+        <v>1</v>
+      </c>
+      <c r="O42" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36">
-        <v>1</v>
-      </c>
-      <c r="D43" s="36">
-        <v>1</v>
-      </c>
-      <c r="E43" s="36">
-        <v>1</v>
-      </c>
-      <c r="F43" s="36">
-        <v>1</v>
-      </c>
-      <c r="G43" s="36">
-        <v>1</v>
-      </c>
-      <c r="H43" s="36">
-        <v>1</v>
-      </c>
-      <c r="I43" s="36">
-        <v>1</v>
-      </c>
-      <c r="J43" s="36">
-        <v>1</v>
-      </c>
-      <c r="K43" s="36">
-        <v>1</v>
-      </c>
-      <c r="L43" s="36">
-        <v>1</v>
-      </c>
-      <c r="M43" s="36">
-        <v>1</v>
-      </c>
-      <c r="N43" s="36">
-        <v>1</v>
-      </c>
-      <c r="O43" s="37">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32">
+        <v>1</v>
+      </c>
+      <c r="D43" s="32">
+        <v>1</v>
+      </c>
+      <c r="E43" s="32">
+        <v>1</v>
+      </c>
+      <c r="F43" s="32">
+        <v>1</v>
+      </c>
+      <c r="G43" s="32">
+        <v>1</v>
+      </c>
+      <c r="H43" s="32">
+        <v>1</v>
+      </c>
+      <c r="I43" s="32">
+        <v>1</v>
+      </c>
+      <c r="J43" s="32">
+        <v>1</v>
+      </c>
+      <c r="K43" s="32">
+        <v>1</v>
+      </c>
+      <c r="L43" s="32">
+        <v>1</v>
+      </c>
+      <c r="M43" s="32">
+        <v>1</v>
+      </c>
+      <c r="N43" s="32">
+        <v>1</v>
+      </c>
+      <c r="O43" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36">
-        <v>1</v>
-      </c>
-      <c r="D44" s="36">
-        <v>1</v>
-      </c>
-      <c r="E44" s="36">
-        <v>1</v>
-      </c>
-      <c r="F44" s="36">
-        <v>1</v>
-      </c>
-      <c r="G44" s="36">
-        <v>1</v>
-      </c>
-      <c r="H44" s="36">
-        <v>1</v>
-      </c>
-      <c r="I44" s="36">
-        <v>1</v>
-      </c>
-      <c r="J44" s="36">
-        <v>1</v>
-      </c>
-      <c r="K44" s="36">
-        <v>1</v>
-      </c>
-      <c r="L44" s="36">
-        <v>1</v>
-      </c>
-      <c r="M44" s="36">
-        <v>1</v>
-      </c>
-      <c r="N44" s="36">
-        <v>1</v>
-      </c>
-      <c r="O44" s="37">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32">
+        <v>1</v>
+      </c>
+      <c r="D44" s="32">
+        <v>1</v>
+      </c>
+      <c r="E44" s="32">
+        <v>1</v>
+      </c>
+      <c r="F44" s="32">
+        <v>1</v>
+      </c>
+      <c r="G44" s="32">
+        <v>1</v>
+      </c>
+      <c r="H44" s="32">
+        <v>1</v>
+      </c>
+      <c r="I44" s="32">
+        <v>1</v>
+      </c>
+      <c r="J44" s="32">
+        <v>1</v>
+      </c>
+      <c r="K44" s="32">
+        <v>1</v>
+      </c>
+      <c r="L44" s="32">
+        <v>1</v>
+      </c>
+      <c r="M44" s="32">
+        <v>1</v>
+      </c>
+      <c r="N44" s="32">
+        <v>1</v>
+      </c>
+      <c r="O44" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36">
-        <v>1</v>
-      </c>
-      <c r="D45" s="36">
-        <v>1</v>
-      </c>
-      <c r="E45" s="36">
-        <v>1</v>
-      </c>
-      <c r="F45" s="36">
-        <v>1</v>
-      </c>
-      <c r="G45" s="36">
-        <v>1</v>
-      </c>
-      <c r="H45" s="36">
-        <v>1</v>
-      </c>
-      <c r="I45" s="36">
-        <v>1</v>
-      </c>
-      <c r="J45" s="36">
-        <v>1</v>
-      </c>
-      <c r="K45" s="36">
-        <v>1</v>
-      </c>
-      <c r="L45" s="36">
-        <v>1</v>
-      </c>
-      <c r="M45" s="36">
-        <v>1</v>
-      </c>
-      <c r="N45" s="36">
-        <v>1</v>
-      </c>
-      <c r="O45" s="37">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32">
+        <v>1</v>
+      </c>
+      <c r="D45" s="32">
+        <v>1</v>
+      </c>
+      <c r="E45" s="32">
+        <v>1</v>
+      </c>
+      <c r="F45" s="32">
+        <v>1</v>
+      </c>
+      <c r="G45" s="32">
+        <v>1</v>
+      </c>
+      <c r="H45" s="32">
+        <v>1</v>
+      </c>
+      <c r="I45" s="32">
+        <v>1</v>
+      </c>
+      <c r="J45" s="32">
+        <v>1</v>
+      </c>
+      <c r="K45" s="32">
+        <v>1</v>
+      </c>
+      <c r="L45" s="32">
+        <v>1</v>
+      </c>
+      <c r="M45" s="32">
+        <v>1</v>
+      </c>
+      <c r="N45" s="32">
+        <v>1</v>
+      </c>
+      <c r="O45" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36">
-        <v>1</v>
-      </c>
-      <c r="D46" s="36">
-        <v>1</v>
-      </c>
-      <c r="E46" s="36">
-        <v>1</v>
-      </c>
-      <c r="F46" s="36">
-        <v>1</v>
-      </c>
-      <c r="G46" s="36">
-        <v>1</v>
-      </c>
-      <c r="H46" s="36">
-        <v>1</v>
-      </c>
-      <c r="I46" s="36">
-        <v>1</v>
-      </c>
-      <c r="J46" s="36">
-        <v>1</v>
-      </c>
-      <c r="K46" s="36">
-        <v>1</v>
-      </c>
-      <c r="L46" s="36">
-        <v>1</v>
-      </c>
-      <c r="M46" s="36">
-        <v>1</v>
-      </c>
-      <c r="N46" s="36">
-        <v>1</v>
-      </c>
-      <c r="O46" s="37">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32">
+        <v>1</v>
+      </c>
+      <c r="D46" s="32">
+        <v>1</v>
+      </c>
+      <c r="E46" s="32">
+        <v>1</v>
+      </c>
+      <c r="F46" s="32">
+        <v>1</v>
+      </c>
+      <c r="G46" s="32">
+        <v>1</v>
+      </c>
+      <c r="H46" s="32">
+        <v>1</v>
+      </c>
+      <c r="I46" s="32">
+        <v>1</v>
+      </c>
+      <c r="J46" s="32">
+        <v>1</v>
+      </c>
+      <c r="K46" s="32">
+        <v>1</v>
+      </c>
+      <c r="L46" s="32">
+        <v>1</v>
+      </c>
+      <c r="M46" s="32">
+        <v>1</v>
+      </c>
+      <c r="N46" s="32">
+        <v>1</v>
+      </c>
+      <c r="O46" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36">
-        <v>1</v>
-      </c>
-      <c r="D47" s="36">
-        <v>1</v>
-      </c>
-      <c r="E47" s="36">
-        <v>1</v>
-      </c>
-      <c r="F47" s="36">
-        <v>1</v>
-      </c>
-      <c r="G47" s="36">
-        <v>1</v>
-      </c>
-      <c r="H47" s="36">
-        <v>1</v>
-      </c>
-      <c r="I47" s="36">
-        <v>1</v>
-      </c>
-      <c r="J47" s="36">
-        <v>1</v>
-      </c>
-      <c r="K47" s="36">
-        <v>1</v>
-      </c>
-      <c r="L47" s="36">
-        <v>1</v>
-      </c>
-      <c r="M47" s="36">
-        <v>1</v>
-      </c>
-      <c r="N47" s="36">
-        <v>1</v>
-      </c>
-      <c r="O47" s="37">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32">
+        <v>1</v>
+      </c>
+      <c r="D47" s="32">
+        <v>1</v>
+      </c>
+      <c r="E47" s="32">
+        <v>1</v>
+      </c>
+      <c r="F47" s="32">
+        <v>1</v>
+      </c>
+      <c r="G47" s="32">
+        <v>1</v>
+      </c>
+      <c r="H47" s="32">
+        <v>1</v>
+      </c>
+      <c r="I47" s="32">
+        <v>1</v>
+      </c>
+      <c r="J47" s="32">
+        <v>1</v>
+      </c>
+      <c r="K47" s="32">
+        <v>1</v>
+      </c>
+      <c r="L47" s="32">
+        <v>1</v>
+      </c>
+      <c r="M47" s="32">
+        <v>1</v>
+      </c>
+      <c r="N47" s="32">
+        <v>1</v>
+      </c>
+      <c r="O47" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36">
-        <v>1</v>
-      </c>
-      <c r="D48" s="36">
-        <v>1</v>
-      </c>
-      <c r="E48" s="36">
-        <v>1</v>
-      </c>
-      <c r="F48" s="36">
-        <v>1</v>
-      </c>
-      <c r="G48" s="36">
-        <v>1</v>
-      </c>
-      <c r="H48" s="36">
-        <v>1</v>
-      </c>
-      <c r="I48" s="36">
-        <v>1</v>
-      </c>
-      <c r="J48" s="36">
-        <v>1</v>
-      </c>
-      <c r="K48" s="36">
-        <v>1</v>
-      </c>
-      <c r="L48" s="36">
-        <v>1</v>
-      </c>
-      <c r="M48" s="36">
-        <v>1</v>
-      </c>
-      <c r="N48" s="36">
-        <v>1</v>
-      </c>
-      <c r="O48" s="37">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32">
+        <v>1</v>
+      </c>
+      <c r="D48" s="32">
+        <v>1</v>
+      </c>
+      <c r="E48" s="32">
+        <v>1</v>
+      </c>
+      <c r="F48" s="32">
+        <v>1</v>
+      </c>
+      <c r="G48" s="32">
+        <v>1</v>
+      </c>
+      <c r="H48" s="32">
+        <v>1</v>
+      </c>
+      <c r="I48" s="32">
+        <v>1</v>
+      </c>
+      <c r="J48" s="32">
+        <v>1</v>
+      </c>
+      <c r="K48" s="32">
+        <v>1</v>
+      </c>
+      <c r="L48" s="32">
+        <v>1</v>
+      </c>
+      <c r="M48" s="32">
+        <v>1</v>
+      </c>
+      <c r="N48" s="32">
+        <v>1</v>
+      </c>
+      <c r="O48" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36">
-        <v>1</v>
-      </c>
-      <c r="D49" s="36">
-        <v>1</v>
-      </c>
-      <c r="E49" s="36">
-        <v>1</v>
-      </c>
-      <c r="F49" s="36">
-        <v>1</v>
-      </c>
-      <c r="G49" s="36">
-        <v>1</v>
-      </c>
-      <c r="H49" s="36">
-        <v>1</v>
-      </c>
-      <c r="I49" s="36">
-        <v>1</v>
-      </c>
-      <c r="J49" s="36">
-        <v>1</v>
-      </c>
-      <c r="K49" s="36">
-        <v>1</v>
-      </c>
-      <c r="L49" s="36">
-        <v>1</v>
-      </c>
-      <c r="M49" s="36">
-        <v>1</v>
-      </c>
-      <c r="N49" s="36">
-        <v>1</v>
-      </c>
-      <c r="O49" s="37">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32">
+        <v>1</v>
+      </c>
+      <c r="D49" s="32">
+        <v>1</v>
+      </c>
+      <c r="E49" s="32">
+        <v>1</v>
+      </c>
+      <c r="F49" s="32">
+        <v>1</v>
+      </c>
+      <c r="G49" s="32">
+        <v>1</v>
+      </c>
+      <c r="H49" s="32">
+        <v>1</v>
+      </c>
+      <c r="I49" s="32">
+        <v>1</v>
+      </c>
+      <c r="J49" s="32">
+        <v>1</v>
+      </c>
+      <c r="K49" s="32">
+        <v>1</v>
+      </c>
+      <c r="L49" s="32">
+        <v>1</v>
+      </c>
+      <c r="M49" s="32">
+        <v>1</v>
+      </c>
+      <c r="N49" s="32">
+        <v>1</v>
+      </c>
+      <c r="O49" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36">
-        <v>1</v>
-      </c>
-      <c r="D50" s="36">
-        <v>1</v>
-      </c>
-      <c r="E50" s="36">
-        <v>1</v>
-      </c>
-      <c r="F50" s="36">
-        <v>1</v>
-      </c>
-      <c r="G50" s="36">
-        <v>1</v>
-      </c>
-      <c r="H50" s="36">
-        <v>1</v>
-      </c>
-      <c r="I50" s="36">
-        <v>1</v>
-      </c>
-      <c r="J50" s="36">
-        <v>1</v>
-      </c>
-      <c r="K50" s="36">
-        <v>1</v>
-      </c>
-      <c r="L50" s="36">
-        <v>1</v>
-      </c>
-      <c r="M50" s="36">
-        <v>1</v>
-      </c>
-      <c r="N50" s="36">
-        <v>1</v>
-      </c>
-      <c r="O50" s="37">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32">
+        <v>1</v>
+      </c>
+      <c r="D50" s="32">
+        <v>1</v>
+      </c>
+      <c r="E50" s="32">
+        <v>1</v>
+      </c>
+      <c r="F50" s="32">
+        <v>1</v>
+      </c>
+      <c r="G50" s="32">
+        <v>1</v>
+      </c>
+      <c r="H50" s="32">
+        <v>1</v>
+      </c>
+      <c r="I50" s="32">
+        <v>1</v>
+      </c>
+      <c r="J50" s="32">
+        <v>1</v>
+      </c>
+      <c r="K50" s="32">
+        <v>1</v>
+      </c>
+      <c r="L50" s="32">
+        <v>1</v>
+      </c>
+      <c r="M50" s="32">
+        <v>1</v>
+      </c>
+      <c r="N50" s="32">
+        <v>1</v>
+      </c>
+      <c r="O50" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36">
-        <v>1</v>
-      </c>
-      <c r="D51" s="36">
-        <v>1</v>
-      </c>
-      <c r="E51" s="36">
-        <v>1</v>
-      </c>
-      <c r="F51" s="36">
-        <v>1</v>
-      </c>
-      <c r="G51" s="36">
-        <v>1</v>
-      </c>
-      <c r="H51" s="36">
-        <v>1</v>
-      </c>
-      <c r="I51" s="36">
-        <v>1</v>
-      </c>
-      <c r="J51" s="36">
-        <v>1</v>
-      </c>
-      <c r="K51" s="36">
-        <v>1</v>
-      </c>
-      <c r="L51" s="36">
-        <v>1</v>
-      </c>
-      <c r="M51" s="36">
-        <v>1</v>
-      </c>
-      <c r="N51" s="36">
-        <v>1</v>
-      </c>
-      <c r="O51" s="37">
+      <c r="B51" s="32"/>
+      <c r="C51" s="32">
+        <v>1</v>
+      </c>
+      <c r="D51" s="32">
+        <v>1</v>
+      </c>
+      <c r="E51" s="32">
+        <v>1</v>
+      </c>
+      <c r="F51" s="32">
+        <v>1</v>
+      </c>
+      <c r="G51" s="32">
+        <v>1</v>
+      </c>
+      <c r="H51" s="32">
+        <v>1</v>
+      </c>
+      <c r="I51" s="32">
+        <v>1</v>
+      </c>
+      <c r="J51" s="32">
+        <v>1</v>
+      </c>
+      <c r="K51" s="32">
+        <v>1</v>
+      </c>
+      <c r="L51" s="32">
+        <v>1</v>
+      </c>
+      <c r="M51" s="32">
+        <v>1</v>
+      </c>
+      <c r="N51" s="32">
+        <v>1</v>
+      </c>
+      <c r="O51" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36">
-        <v>1</v>
-      </c>
-      <c r="D52" s="36">
-        <v>1</v>
-      </c>
-      <c r="E52" s="36">
-        <v>1</v>
-      </c>
-      <c r="F52" s="36">
-        <v>1</v>
-      </c>
-      <c r="G52" s="36">
-        <v>1</v>
-      </c>
-      <c r="H52" s="36">
-        <v>1</v>
-      </c>
-      <c r="I52" s="36">
-        <v>1</v>
-      </c>
-      <c r="J52" s="36">
-        <v>1</v>
-      </c>
-      <c r="K52" s="36">
-        <v>1</v>
-      </c>
-      <c r="L52" s="36">
-        <v>1</v>
-      </c>
-      <c r="M52" s="36">
-        <v>1</v>
-      </c>
-      <c r="N52" s="36">
-        <v>1</v>
-      </c>
-      <c r="O52" s="37">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32">
+        <v>1</v>
+      </c>
+      <c r="D52" s="32">
+        <v>1</v>
+      </c>
+      <c r="E52" s="32">
+        <v>1</v>
+      </c>
+      <c r="F52" s="32">
+        <v>1</v>
+      </c>
+      <c r="G52" s="32">
+        <v>1</v>
+      </c>
+      <c r="H52" s="32">
+        <v>1</v>
+      </c>
+      <c r="I52" s="32">
+        <v>1</v>
+      </c>
+      <c r="J52" s="32">
+        <v>1</v>
+      </c>
+      <c r="K52" s="32">
+        <v>1</v>
+      </c>
+      <c r="L52" s="32">
+        <v>1</v>
+      </c>
+      <c r="M52" s="32">
+        <v>1</v>
+      </c>
+      <c r="N52" s="32">
+        <v>1</v>
+      </c>
+      <c r="O52" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36">
-        <v>1</v>
-      </c>
-      <c r="D53" s="36">
-        <v>1</v>
-      </c>
-      <c r="E53" s="36">
-        <v>1</v>
-      </c>
-      <c r="F53" s="36">
-        <v>1</v>
-      </c>
-      <c r="G53" s="36">
-        <v>1</v>
-      </c>
-      <c r="H53" s="36">
-        <v>1</v>
-      </c>
-      <c r="I53" s="36">
-        <v>1</v>
-      </c>
-      <c r="J53" s="36">
-        <v>1</v>
-      </c>
-      <c r="K53" s="36">
-        <v>1</v>
-      </c>
-      <c r="L53" s="36">
-        <v>1</v>
-      </c>
-      <c r="M53" s="36">
-        <v>1</v>
-      </c>
-      <c r="N53" s="36">
-        <v>1</v>
-      </c>
-      <c r="O53" s="37">
+      <c r="B53" s="32"/>
+      <c r="C53" s="32">
+        <v>1</v>
+      </c>
+      <c r="D53" s="32">
+        <v>1</v>
+      </c>
+      <c r="E53" s="32">
+        <v>1</v>
+      </c>
+      <c r="F53" s="32">
+        <v>1</v>
+      </c>
+      <c r="G53" s="32">
+        <v>1</v>
+      </c>
+      <c r="H53" s="32">
+        <v>1</v>
+      </c>
+      <c r="I53" s="32">
+        <v>1</v>
+      </c>
+      <c r="J53" s="32">
+        <v>1</v>
+      </c>
+      <c r="K53" s="32">
+        <v>1</v>
+      </c>
+      <c r="L53" s="32">
+        <v>1</v>
+      </c>
+      <c r="M53" s="32">
+        <v>1</v>
+      </c>
+      <c r="N53" s="32">
+        <v>1</v>
+      </c>
+      <c r="O53" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36">
-        <v>1</v>
-      </c>
-      <c r="D54" s="36">
-        <v>1</v>
-      </c>
-      <c r="E54" s="36">
-        <v>1</v>
-      </c>
-      <c r="F54" s="36">
-        <v>1</v>
-      </c>
-      <c r="G54" s="36">
-        <v>1</v>
-      </c>
-      <c r="H54" s="36">
-        <v>1</v>
-      </c>
-      <c r="I54" s="36">
-        <v>1</v>
-      </c>
-      <c r="J54" s="36">
-        <v>1</v>
-      </c>
-      <c r="K54" s="36">
-        <v>1</v>
-      </c>
-      <c r="L54" s="36">
-        <v>1</v>
-      </c>
-      <c r="M54" s="36">
-        <v>1</v>
-      </c>
-      <c r="N54" s="36">
-        <v>1</v>
-      </c>
-      <c r="O54" s="37">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32">
+        <v>1</v>
+      </c>
+      <c r="D54" s="32">
+        <v>1</v>
+      </c>
+      <c r="E54" s="32">
+        <v>1</v>
+      </c>
+      <c r="F54" s="32">
+        <v>1</v>
+      </c>
+      <c r="G54" s="32">
+        <v>1</v>
+      </c>
+      <c r="H54" s="32">
+        <v>1</v>
+      </c>
+      <c r="I54" s="32">
+        <v>1</v>
+      </c>
+      <c r="J54" s="32">
+        <v>1</v>
+      </c>
+      <c r="K54" s="32">
+        <v>1</v>
+      </c>
+      <c r="L54" s="32">
+        <v>1</v>
+      </c>
+      <c r="M54" s="32">
+        <v>1</v>
+      </c>
+      <c r="N54" s="32">
+        <v>1</v>
+      </c>
+      <c r="O54" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36">
-        <v>1</v>
-      </c>
-      <c r="D55" s="36">
-        <v>1</v>
-      </c>
-      <c r="E55" s="36">
-        <v>1</v>
-      </c>
-      <c r="F55" s="36">
-        <v>1</v>
-      </c>
-      <c r="G55" s="36">
-        <v>1</v>
-      </c>
-      <c r="H55" s="36">
-        <v>1</v>
-      </c>
-      <c r="I55" s="36">
-        <v>1</v>
-      </c>
-      <c r="J55" s="36">
-        <v>1</v>
-      </c>
-      <c r="K55" s="36">
-        <v>1</v>
-      </c>
-      <c r="L55" s="36">
-        <v>1</v>
-      </c>
-      <c r="M55" s="36">
-        <v>1</v>
-      </c>
-      <c r="N55" s="36">
-        <v>1</v>
-      </c>
-      <c r="O55" s="37">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32">
+        <v>1</v>
+      </c>
+      <c r="D55" s="32">
+        <v>1</v>
+      </c>
+      <c r="E55" s="32">
+        <v>1</v>
+      </c>
+      <c r="F55" s="32">
+        <v>1</v>
+      </c>
+      <c r="G55" s="32">
+        <v>1</v>
+      </c>
+      <c r="H55" s="32">
+        <v>1</v>
+      </c>
+      <c r="I55" s="32">
+        <v>1</v>
+      </c>
+      <c r="J55" s="32">
+        <v>1</v>
+      </c>
+      <c r="K55" s="32">
+        <v>1</v>
+      </c>
+      <c r="L55" s="32">
+        <v>1</v>
+      </c>
+      <c r="M55" s="32">
+        <v>1</v>
+      </c>
+      <c r="N55" s="32">
+        <v>1</v>
+      </c>
+      <c r="O55" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36">
-        <v>1</v>
-      </c>
-      <c r="D56" s="36">
-        <v>1</v>
-      </c>
-      <c r="E56" s="36">
-        <v>1</v>
-      </c>
-      <c r="F56" s="36">
-        <v>1</v>
-      </c>
-      <c r="G56" s="36">
-        <v>1</v>
-      </c>
-      <c r="H56" s="36">
-        <v>1</v>
-      </c>
-      <c r="I56" s="36">
-        <v>1</v>
-      </c>
-      <c r="J56" s="36">
-        <v>1</v>
-      </c>
-      <c r="K56" s="36">
-        <v>1</v>
-      </c>
-      <c r="L56" s="36">
-        <v>1</v>
-      </c>
-      <c r="M56" s="36">
-        <v>1</v>
-      </c>
-      <c r="N56" s="36">
-        <v>1</v>
-      </c>
-      <c r="O56" s="37">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32">
+        <v>1</v>
+      </c>
+      <c r="D56" s="32">
+        <v>1</v>
+      </c>
+      <c r="E56" s="32">
+        <v>1</v>
+      </c>
+      <c r="F56" s="32">
+        <v>1</v>
+      </c>
+      <c r="G56" s="32">
+        <v>1</v>
+      </c>
+      <c r="H56" s="32">
+        <v>1</v>
+      </c>
+      <c r="I56" s="32">
+        <v>1</v>
+      </c>
+      <c r="J56" s="32">
+        <v>1</v>
+      </c>
+      <c r="K56" s="32">
+        <v>1</v>
+      </c>
+      <c r="L56" s="32">
+        <v>1</v>
+      </c>
+      <c r="M56" s="32">
+        <v>1</v>
+      </c>
+      <c r="N56" s="32">
+        <v>1</v>
+      </c>
+      <c r="O56" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36">
-        <v>1</v>
-      </c>
-      <c r="D57" s="36">
-        <v>1</v>
-      </c>
-      <c r="E57" s="36">
-        <v>1</v>
-      </c>
-      <c r="F57" s="36">
-        <v>1</v>
-      </c>
-      <c r="G57" s="36">
-        <v>1</v>
-      </c>
-      <c r="H57" s="36">
-        <v>1</v>
-      </c>
-      <c r="I57" s="36">
-        <v>1</v>
-      </c>
-      <c r="J57" s="36">
-        <v>1</v>
-      </c>
-      <c r="K57" s="36">
-        <v>1</v>
-      </c>
-      <c r="L57" s="36">
-        <v>1</v>
-      </c>
-      <c r="M57" s="36">
-        <v>1</v>
-      </c>
-      <c r="N57" s="36">
-        <v>1</v>
-      </c>
-      <c r="O57" s="37">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32">
+        <v>1</v>
+      </c>
+      <c r="D57" s="32">
+        <v>1</v>
+      </c>
+      <c r="E57" s="32">
+        <v>1</v>
+      </c>
+      <c r="F57" s="32">
+        <v>1</v>
+      </c>
+      <c r="G57" s="32">
+        <v>1</v>
+      </c>
+      <c r="H57" s="32">
+        <v>1</v>
+      </c>
+      <c r="I57" s="32">
+        <v>1</v>
+      </c>
+      <c r="J57" s="32">
+        <v>1</v>
+      </c>
+      <c r="K57" s="32">
+        <v>1</v>
+      </c>
+      <c r="L57" s="32">
+        <v>1</v>
+      </c>
+      <c r="M57" s="32">
+        <v>1</v>
+      </c>
+      <c r="N57" s="32">
+        <v>1</v>
+      </c>
+      <c r="O57" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36">
-        <v>1</v>
-      </c>
-      <c r="D58" s="36">
-        <v>1</v>
-      </c>
-      <c r="E58" s="36">
-        <v>1</v>
-      </c>
-      <c r="F58" s="36">
-        <v>1</v>
-      </c>
-      <c r="G58" s="36">
-        <v>1</v>
-      </c>
-      <c r="H58" s="36">
-        <v>1</v>
-      </c>
-      <c r="I58" s="36">
-        <v>1</v>
-      </c>
-      <c r="J58" s="36">
-        <v>1</v>
-      </c>
-      <c r="K58" s="36">
-        <v>1</v>
-      </c>
-      <c r="L58" s="36">
-        <v>1</v>
-      </c>
-      <c r="M58" s="36">
-        <v>1</v>
-      </c>
-      <c r="N58" s="36">
-        <v>1</v>
-      </c>
-      <c r="O58" s="37">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32">
+        <v>1</v>
+      </c>
+      <c r="D58" s="32">
+        <v>1</v>
+      </c>
+      <c r="E58" s="32">
+        <v>1</v>
+      </c>
+      <c r="F58" s="32">
+        <v>1</v>
+      </c>
+      <c r="G58" s="32">
+        <v>1</v>
+      </c>
+      <c r="H58" s="32">
+        <v>1</v>
+      </c>
+      <c r="I58" s="32">
+        <v>1</v>
+      </c>
+      <c r="J58" s="32">
+        <v>1</v>
+      </c>
+      <c r="K58" s="32">
+        <v>1</v>
+      </c>
+      <c r="L58" s="32">
+        <v>1</v>
+      </c>
+      <c r="M58" s="32">
+        <v>1</v>
+      </c>
+      <c r="N58" s="32">
+        <v>1</v>
+      </c>
+      <c r="O58" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36">
-        <v>1</v>
-      </c>
-      <c r="D59" s="36">
-        <v>1</v>
-      </c>
-      <c r="E59" s="36">
-        <v>1</v>
-      </c>
-      <c r="F59" s="36">
-        <v>1</v>
-      </c>
-      <c r="G59" s="36">
-        <v>1</v>
-      </c>
-      <c r="H59" s="36">
-        <v>1</v>
-      </c>
-      <c r="I59" s="36">
-        <v>1</v>
-      </c>
-      <c r="J59" s="36">
-        <v>1</v>
-      </c>
-      <c r="K59" s="36">
-        <v>1</v>
-      </c>
-      <c r="L59" s="36">
-        <v>1</v>
-      </c>
-      <c r="M59" s="36">
-        <v>1</v>
-      </c>
-      <c r="N59" s="36">
-        <v>1</v>
-      </c>
-      <c r="O59" s="37">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32">
+        <v>1</v>
+      </c>
+      <c r="D59" s="32">
+        <v>1</v>
+      </c>
+      <c r="E59" s="32">
+        <v>1</v>
+      </c>
+      <c r="F59" s="32">
+        <v>1</v>
+      </c>
+      <c r="G59" s="32">
+        <v>1</v>
+      </c>
+      <c r="H59" s="32">
+        <v>1</v>
+      </c>
+      <c r="I59" s="32">
+        <v>1</v>
+      </c>
+      <c r="J59" s="32">
+        <v>1</v>
+      </c>
+      <c r="K59" s="32">
+        <v>1</v>
+      </c>
+      <c r="L59" s="32">
+        <v>1</v>
+      </c>
+      <c r="M59" s="32">
+        <v>1</v>
+      </c>
+      <c r="N59" s="32">
+        <v>1</v>
+      </c>
+      <c r="O59" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45">
+      <c r="B60" s="44"/>
+      <c r="C60" s="44">
         <f>SUM(C35:C59)</f>
         <v>1142.4000000000001</v>
       </c>
-      <c r="D60" s="45">
+      <c r="D60" s="44">
         <f t="shared" ref="D60:N60" si="14">SUM(D35:D59)</f>
         <v>1110.3599999999999</v>
       </c>
-      <c r="E60" s="45">
+      <c r="E60" s="44">
         <f t="shared" si="14"/>
         <v>1206.48</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="44">
         <f t="shared" si="14"/>
         <v>1270.56</v>
       </c>
-      <c r="G60" s="45">
+      <c r="G60" s="44">
         <f t="shared" si="14"/>
         <v>1334.6399999999999</v>
       </c>
-      <c r="H60" s="45">
+      <c r="H60" s="44">
         <f t="shared" si="14"/>
         <v>1302.5999999999999</v>
       </c>
-      <c r="I60" s="45">
+      <c r="I60" s="44">
         <f t="shared" si="14"/>
         <v>1398.7199999999998</v>
       </c>
-      <c r="J60" s="45">
+      <c r="J60" s="44">
         <f t="shared" si="14"/>
         <v>1366.6799999999998</v>
       </c>
-      <c r="K60" s="45">
+      <c r="K60" s="44">
         <f t="shared" si="14"/>
         <v>1438.52</v>
       </c>
-      <c r="L60" s="45">
+      <c r="L60" s="44">
         <f t="shared" si="14"/>
         <v>1502.6</v>
       </c>
-      <c r="M60" s="45">
+      <c r="M60" s="44">
         <f t="shared" si="14"/>
         <v>1630.76</v>
       </c>
-      <c r="N60" s="45">
+      <c r="N60" s="44">
         <f t="shared" si="14"/>
         <v>1758.9199999999998</v>
       </c>
-      <c r="O60" s="37">
+      <c r="O60" s="36">
         <f t="shared" si="12"/>
         <v>16463.240000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38" t="s">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36">
-        <v>1</v>
-      </c>
-      <c r="D61" s="36">
-        <v>1</v>
-      </c>
-      <c r="E61" s="36">
-        <v>1</v>
-      </c>
-      <c r="F61" s="36">
-        <v>1</v>
-      </c>
-      <c r="G61" s="36">
-        <v>1</v>
-      </c>
-      <c r="H61" s="36">
-        <v>1</v>
-      </c>
-      <c r="I61" s="36">
-        <v>1</v>
-      </c>
-      <c r="J61" s="36">
-        <v>1</v>
-      </c>
-      <c r="K61" s="36">
-        <v>1</v>
-      </c>
-      <c r="L61" s="36">
-        <v>1</v>
-      </c>
-      <c r="M61" s="36">
-        <v>1</v>
-      </c>
-      <c r="N61" s="36">
-        <v>1</v>
-      </c>
-      <c r="O61" s="37">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32">
+        <v>1</v>
+      </c>
+      <c r="D61" s="32">
+        <v>1</v>
+      </c>
+      <c r="E61" s="32">
+        <v>1</v>
+      </c>
+      <c r="F61" s="32">
+        <v>1</v>
+      </c>
+      <c r="G61" s="32">
+        <v>1</v>
+      </c>
+      <c r="H61" s="32">
+        <v>1</v>
+      </c>
+      <c r="I61" s="32">
+        <v>1</v>
+      </c>
+      <c r="J61" s="32">
+        <v>1</v>
+      </c>
+      <c r="K61" s="32">
+        <v>1</v>
+      </c>
+      <c r="L61" s="32">
+        <v>1</v>
+      </c>
+      <c r="M61" s="32">
+        <v>1</v>
+      </c>
+      <c r="N61" s="32">
+        <v>1</v>
+      </c>
+      <c r="O61" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="38" t="s">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36">
-        <v>1</v>
-      </c>
-      <c r="D62" s="36">
-        <v>1</v>
-      </c>
-      <c r="E62" s="36">
-        <v>1</v>
-      </c>
-      <c r="F62" s="36">
-        <v>1</v>
-      </c>
-      <c r="G62" s="36">
-        <v>1</v>
-      </c>
-      <c r="H62" s="36">
-        <v>1</v>
-      </c>
-      <c r="I62" s="36">
-        <v>1</v>
-      </c>
-      <c r="J62" s="36">
-        <v>1</v>
-      </c>
-      <c r="K62" s="36">
-        <v>1</v>
-      </c>
-      <c r="L62" s="36">
-        <v>1</v>
-      </c>
-      <c r="M62" s="36">
-        <v>1</v>
-      </c>
-      <c r="N62" s="36">
-        <v>1</v>
-      </c>
-      <c r="O62" s="37">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32">
+        <v>1</v>
+      </c>
+      <c r="D62" s="32">
+        <v>1</v>
+      </c>
+      <c r="E62" s="32">
+        <v>1</v>
+      </c>
+      <c r="F62" s="32">
+        <v>1</v>
+      </c>
+      <c r="G62" s="32">
+        <v>1</v>
+      </c>
+      <c r="H62" s="32">
+        <v>1</v>
+      </c>
+      <c r="I62" s="32">
+        <v>1</v>
+      </c>
+      <c r="J62" s="32">
+        <v>1</v>
+      </c>
+      <c r="K62" s="32">
+        <v>1</v>
+      </c>
+      <c r="L62" s="32">
+        <v>1</v>
+      </c>
+      <c r="M62" s="32">
+        <v>1</v>
+      </c>
+      <c r="N62" s="32">
+        <v>1</v>
+      </c>
+      <c r="O62" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="s">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36">
-        <v>1</v>
-      </c>
-      <c r="D63" s="36">
-        <v>1</v>
-      </c>
-      <c r="E63" s="36">
-        <v>1</v>
-      </c>
-      <c r="F63" s="36">
-        <v>1</v>
-      </c>
-      <c r="G63" s="36">
-        <v>1</v>
-      </c>
-      <c r="H63" s="36">
-        <v>1</v>
-      </c>
-      <c r="I63" s="36">
-        <v>1</v>
-      </c>
-      <c r="J63" s="36">
-        <v>1</v>
-      </c>
-      <c r="K63" s="36">
-        <v>1</v>
-      </c>
-      <c r="L63" s="36">
-        <v>1</v>
-      </c>
-      <c r="M63" s="36">
-        <v>1</v>
-      </c>
-      <c r="N63" s="36">
-        <v>1</v>
-      </c>
-      <c r="O63" s="37">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32">
+        <v>1</v>
+      </c>
+      <c r="D63" s="32">
+        <v>1</v>
+      </c>
+      <c r="E63" s="32">
+        <v>1</v>
+      </c>
+      <c r="F63" s="32">
+        <v>1</v>
+      </c>
+      <c r="G63" s="32">
+        <v>1</v>
+      </c>
+      <c r="H63" s="32">
+        <v>1</v>
+      </c>
+      <c r="I63" s="32">
+        <v>1</v>
+      </c>
+      <c r="J63" s="32">
+        <v>1</v>
+      </c>
+      <c r="K63" s="32">
+        <v>1</v>
+      </c>
+      <c r="L63" s="32">
+        <v>1</v>
+      </c>
+      <c r="M63" s="32">
+        <v>1</v>
+      </c>
+      <c r="N63" s="32">
+        <v>1</v>
+      </c>
+      <c r="O63" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36">
-        <v>1</v>
-      </c>
-      <c r="D64" s="36">
-        <v>1</v>
-      </c>
-      <c r="E64" s="36">
-        <v>1</v>
-      </c>
-      <c r="F64" s="36">
-        <v>1</v>
-      </c>
-      <c r="G64" s="36">
-        <v>1</v>
-      </c>
-      <c r="H64" s="36">
-        <v>1</v>
-      </c>
-      <c r="I64" s="36">
-        <v>1</v>
-      </c>
-      <c r="J64" s="36">
-        <v>1</v>
-      </c>
-      <c r="K64" s="36">
-        <v>1</v>
-      </c>
-      <c r="L64" s="36">
-        <v>1</v>
-      </c>
-      <c r="M64" s="36">
-        <v>1</v>
-      </c>
-      <c r="N64" s="36">
-        <v>1</v>
-      </c>
-      <c r="O64" s="37">
+      <c r="B64" s="32"/>
+      <c r="C64" s="32">
+        <v>1</v>
+      </c>
+      <c r="D64" s="32">
+        <v>1</v>
+      </c>
+      <c r="E64" s="32">
+        <v>1</v>
+      </c>
+      <c r="F64" s="32">
+        <v>1</v>
+      </c>
+      <c r="G64" s="32">
+        <v>1</v>
+      </c>
+      <c r="H64" s="32">
+        <v>1</v>
+      </c>
+      <c r="I64" s="32">
+        <v>1</v>
+      </c>
+      <c r="J64" s="32">
+        <v>1</v>
+      </c>
+      <c r="K64" s="32">
+        <v>1</v>
+      </c>
+      <c r="L64" s="32">
+        <v>1</v>
+      </c>
+      <c r="M64" s="32">
+        <v>1</v>
+      </c>
+      <c r="N64" s="32">
+        <v>1</v>
+      </c>
+      <c r="O64" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36">
-        <v>1</v>
-      </c>
-      <c r="D65" s="36">
-        <v>1</v>
-      </c>
-      <c r="E65" s="36">
-        <v>1</v>
-      </c>
-      <c r="F65" s="36">
-        <v>1</v>
-      </c>
-      <c r="G65" s="36">
-        <v>1</v>
-      </c>
-      <c r="H65" s="36">
-        <v>1</v>
-      </c>
-      <c r="I65" s="36">
-        <v>1</v>
-      </c>
-      <c r="J65" s="36">
-        <v>1</v>
-      </c>
-      <c r="K65" s="36">
-        <v>1</v>
-      </c>
-      <c r="L65" s="36">
-        <v>1</v>
-      </c>
-      <c r="M65" s="36">
-        <v>1</v>
-      </c>
-      <c r="N65" s="36">
-        <v>1</v>
-      </c>
-      <c r="O65" s="37">
+      <c r="B65" s="32"/>
+      <c r="C65" s="32">
+        <v>1</v>
+      </c>
+      <c r="D65" s="32">
+        <v>1</v>
+      </c>
+      <c r="E65" s="32">
+        <v>1</v>
+      </c>
+      <c r="F65" s="32">
+        <v>1</v>
+      </c>
+      <c r="G65" s="32">
+        <v>1</v>
+      </c>
+      <c r="H65" s="32">
+        <v>1</v>
+      </c>
+      <c r="I65" s="32">
+        <v>1</v>
+      </c>
+      <c r="J65" s="32">
+        <v>1</v>
+      </c>
+      <c r="K65" s="32">
+        <v>1</v>
+      </c>
+      <c r="L65" s="32">
+        <v>1</v>
+      </c>
+      <c r="M65" s="32">
+        <v>1</v>
+      </c>
+      <c r="N65" s="32">
+        <v>1</v>
+      </c>
+      <c r="O65" s="36">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
+    <row r="66" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45">
+      <c r="B66" s="44"/>
+      <c r="C66" s="44">
         <f>C60-SUM(C61:C65)</f>
         <v>1137.4000000000001</v>
       </c>
-      <c r="D66" s="45">
+      <c r="D66" s="44">
         <f t="shared" ref="D66:N66" si="15">D60-SUM(D61:D65)</f>
         <v>1105.3599999999999</v>
       </c>
-      <c r="E66" s="45">
+      <c r="E66" s="44">
         <f t="shared" si="15"/>
         <v>1201.48</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="44">
         <f t="shared" si="15"/>
         <v>1265.56</v>
       </c>
-      <c r="G66" s="45">
+      <c r="G66" s="44">
         <f t="shared" si="15"/>
         <v>1329.6399999999999</v>
       </c>
-      <c r="H66" s="45">
+      <c r="H66" s="44">
         <f t="shared" si="15"/>
         <v>1297.5999999999999</v>
       </c>
-      <c r="I66" s="45">
+      <c r="I66" s="44">
         <f t="shared" si="15"/>
         <v>1393.7199999999998</v>
       </c>
-      <c r="J66" s="45">
+      <c r="J66" s="44">
         <f t="shared" si="15"/>
         <v>1361.6799999999998</v>
       </c>
-      <c r="K66" s="45">
+      <c r="K66" s="44">
         <f t="shared" si="15"/>
         <v>1433.52</v>
       </c>
-      <c r="L66" s="45">
+      <c r="L66" s="44">
         <f t="shared" si="15"/>
         <v>1497.6</v>
       </c>
-      <c r="M66" s="45">
+      <c r="M66" s="44">
         <f t="shared" si="15"/>
         <v>1625.76</v>
       </c>
-      <c r="N66" s="45">
+      <c r="N66" s="44">
         <f t="shared" si="15"/>
         <v>1753.9199999999998</v>
       </c>
-      <c r="O66" s="37">
+      <c r="O66" s="36">
         <f t="shared" si="12"/>
         <v>16403.240000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="46">
+      <c r="B67" s="45">
         <f t="shared" ref="B67:N67" si="16">B32-B66</f>
         <v>50</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C67" s="45">
         <f t="shared" si="16"/>
         <v>-126.20000000000005</v>
       </c>
-      <c r="D67" s="46">
+      <c r="D67" s="45">
         <f t="shared" si="16"/>
         <v>-270.36</v>
       </c>
-      <c r="E67" s="46">
+      <c r="E67" s="45">
         <f t="shared" si="16"/>
         <v>-190.24000000000012</v>
       </c>
-      <c r="F67" s="46">
+      <c r="F67" s="45">
         <f t="shared" si="16"/>
         <v>39.400000000000091</v>
       </c>
-      <c r="G67" s="46">
+      <c r="G67" s="45">
         <f t="shared" si="16"/>
         <v>418.56000000000017</v>
       </c>
-      <c r="H67" s="46">
+      <c r="H67" s="45">
         <f t="shared" si="16"/>
         <v>722.96000000000026</v>
       </c>
-      <c r="I67" s="46">
+      <c r="I67" s="45">
         <f t="shared" si="16"/>
         <v>1251.6400000000003</v>
       </c>
-      <c r="J67" s="46">
+      <c r="J67" s="45">
         <f t="shared" si="16"/>
         <v>1705.5600000000004</v>
       </c>
-      <c r="K67" s="46">
+      <c r="K67" s="45">
         <f t="shared" si="16"/>
         <v>1660.44</v>
       </c>
-      <c r="L67" s="46">
+      <c r="L67" s="45">
         <f t="shared" si="16"/>
         <v>1764.8400000000001</v>
       </c>
-      <c r="M67" s="46">
+      <c r="M67" s="45">
         <f t="shared" si="16"/>
         <v>2168.2799999999997</v>
       </c>
-      <c r="N67" s="46">
+      <c r="N67" s="45">
         <f t="shared" si="16"/>
         <v>2870.7599999999993</v>
       </c>
-      <c r="O67" s="47"/>
+      <c r="O67" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
